--- a/BackTest/2020-01-22 BackTest FAB.xlsx
+++ b/BackTest/2020-01-22 BackTest FAB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-677409.8999064242</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-669409.8999064242</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-669409.8999064242</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-671439.8999064242</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-671406.6892064242</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-668546.7761886682</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-668546.7761886682</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-684562.7986886682</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-684562.7986886682</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-684336.3172886681</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-694769.3897886681</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-850072.1916886681</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-850042.2027886681</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-803012.7039325385</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-808942.2666325385</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-810119.5539325385</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-799803.4619785155</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-878108.4102785155</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-883908.4102785155</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-902886.7091785156</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-967745.8139016369</v>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-936601.7155694732</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-936601.7155694732</v>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-926023.9769694732</v>
       </c>
       <c r="H71" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-1033630.555769473</v>
       </c>
       <c r="H79" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-1038881.475369473</v>
       </c>
       <c r="H80" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-1038551.475369473</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-1038551.475369473</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-1038582.475369473</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-1039268.010069473</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-1041138.964469473</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-1041108.964469473</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-1041108.964469473</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-1058282.360169473</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-1267384.684369473</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-1267384.684369473</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-1267354.684369473</v>
       </c>
       <c r="H91" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-3089599.209287429</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-3319790.68468743</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-3319833.91168743</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-3319833.91168743</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -10384,10 +10384,14 @@
         <v>-5648401.45261057</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I303" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="J303" t="n">
+        <v>16.3</v>
+      </c>
       <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
@@ -10420,8 +10424,14 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10453,8 +10463,14 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10945,14 +10961,10 @@
         <v>-5674100.467085327</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
-      </c>
-      <c r="I320" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="J320" t="n">
-        <v>16.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I320" t="inlineStr"/>
+      <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
@@ -10982,19 +10994,11 @@
         <v>-5674100.467085327</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
-      </c>
-      <c r="I321" t="n">
-        <v>16.63</v>
-      </c>
-      <c r="J321" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I321" t="inlineStr"/>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11023,19 +11027,11 @@
         <v>-5643561.041685327</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
-      </c>
-      <c r="I322" t="n">
-        <v>16.63</v>
-      </c>
-      <c r="J322" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I322" t="inlineStr"/>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11922,10 +11918,14 @@
         <v>-5880287.409585326</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
-      </c>
-      <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I349" t="n">
+        <v>16.33</v>
+      </c>
+      <c r="J349" t="n">
+        <v>16.33</v>
+      </c>
       <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
@@ -11955,15 +11955,19 @@
         <v>-5880287.409585326</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I350" t="n">
         <v>16.5</v>
       </c>
       <c r="J350" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="K350" t="inlineStr"/>
+        <v>16.33</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -11992,11 +11996,13 @@
         <v>-5880287.409585326</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
-      </c>
-      <c r="I351" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I351" t="n">
+        <v>16.5</v>
+      </c>
       <c r="J351" t="n">
-        <v>16.5</v>
+        <v>16.33</v>
       </c>
       <c r="K351" t="inlineStr">
         <is>
@@ -12031,7 +12037,7 @@
         <v>-5891410.276085326</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I352" t="n">
         <v>16.5</v>
@@ -12039,44 +12045,48 @@
       <c r="J352" t="n">
         <v>16.5</v>
       </c>
-      <c r="K352" t="inlineStr">
+      <c r="K352" t="inlineStr"/>
+      <c r="L352" t="n">
+        <v>1</v>
+      </c>
+      <c r="M352" t="inlineStr"/>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="n">
+        <v>351</v>
+      </c>
+      <c r="B353" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C353" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D353" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E353" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="F353" t="n">
+        <v>31</v>
+      </c>
+      <c r="G353" t="n">
+        <v>-5891379.276085326</v>
+      </c>
+      <c r="H353" t="n">
+        <v>1</v>
+      </c>
+      <c r="I353" t="n">
+        <v>16.35</v>
+      </c>
+      <c r="J353" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="K353" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L352" t="n">
-        <v>1</v>
-      </c>
-      <c r="M352" t="inlineStr"/>
-    </row>
-    <row r="353">
-      <c r="A353" s="1" t="n">
-        <v>351</v>
-      </c>
-      <c r="B353" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="C353" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="D353" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="E353" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="F353" t="n">
-        <v>31</v>
-      </c>
-      <c r="G353" t="n">
-        <v>-5891379.276085326</v>
-      </c>
-      <c r="H353" t="n">
-        <v>0</v>
-      </c>
-      <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12105,11 +12115,19 @@
         <v>-5891379.276085326</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
-      </c>
-      <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I354" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="J354" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12141,8 +12159,14 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12174,8 +12198,14 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12207,8 +12237,14 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12237,11 +12273,19 @@
         <v>-5986655.536985325</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
-      </c>
-      <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I358" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="J358" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12270,11 +12314,19 @@
         <v>-5986655.536985325</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
-      </c>
-      <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I359" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="J359" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12303,15 +12355,19 @@
         <v>-5986655.536985325</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I360" t="n">
         <v>16.3</v>
       </c>
       <c r="J360" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="K360" t="inlineStr"/>
+        <v>16.5</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12340,15 +12396,17 @@
         <v>-5986655.536985325</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
-      </c>
-      <c r="I361" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I361" t="n">
+        <v>16.3</v>
+      </c>
       <c r="J361" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K361" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L361" t="n">
@@ -12379,17 +12437,17 @@
         <v>-5936624.442485325</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I362" t="n">
         <v>16.3</v>
       </c>
       <c r="J362" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K362" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L362" t="n">
@@ -12420,13 +12478,13 @@
         <v>-6252490.634185325</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I363" t="n">
         <v>16.48</v>
       </c>
       <c r="J363" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K363" t="inlineStr">
         <is>
@@ -12461,13 +12519,11 @@
         <v>-6237751.798585325</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
-      </c>
-      <c r="I364" t="n">
-        <v>16.23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I364" t="inlineStr"/>
       <c r="J364" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K364" t="inlineStr">
         <is>
@@ -12502,11 +12558,13 @@
         <v>-6237751.798585325</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
-      </c>
-      <c r="I365" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I365" t="n">
+        <v>16.48</v>
+      </c>
       <c r="J365" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K365" t="inlineStr">
         <is>
@@ -12541,13 +12599,11 @@
         <v>-6237045.859385326</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
-      </c>
-      <c r="I366" t="n">
-        <v>16.48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I366" t="inlineStr"/>
       <c r="J366" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K366" t="inlineStr">
         <is>
@@ -12586,7 +12642,7 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K367" t="inlineStr">
         <is>
@@ -12621,11 +12677,13 @@
         <v>-6275738.239585325</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
-      </c>
-      <c r="I368" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I368" t="n">
+        <v>16.23</v>
+      </c>
       <c r="J368" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K368" t="inlineStr">
         <is>
@@ -12660,11 +12718,13 @@
         <v>-6388619.252985325</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
-      </c>
-      <c r="I369" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I369" t="n">
+        <v>16.23</v>
+      </c>
       <c r="J369" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K369" t="inlineStr">
         <is>
@@ -12699,13 +12759,13 @@
         <v>-6379416.319985325</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I370" t="n">
         <v>16.12</v>
       </c>
       <c r="J370" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K370" t="inlineStr">
         <is>
@@ -12740,11 +12800,13 @@
         <v>-6376085.616385325</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
-      </c>
-      <c r="I371" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I371" t="n">
+        <v>16.39</v>
+      </c>
       <c r="J371" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K371" t="inlineStr">
         <is>
@@ -12779,11 +12841,13 @@
         <v>-6376085.616385325</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
-      </c>
-      <c r="I372" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I372" t="n">
+        <v>16.4</v>
+      </c>
       <c r="J372" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K372" t="inlineStr">
         <is>
@@ -12818,11 +12882,13 @@
         <v>-6381117.991885325</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
-      </c>
-      <c r="I373" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I373" t="n">
+        <v>16.4</v>
+      </c>
       <c r="J373" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K373" t="inlineStr">
         <is>
@@ -12857,11 +12923,13 @@
         <v>-6358276.179985325</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
-      </c>
-      <c r="I374" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I374" t="n">
+        <v>16.38</v>
+      </c>
       <c r="J374" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K374" t="inlineStr">
         <is>
@@ -12896,11 +12964,13 @@
         <v>-6469588.655085325</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
-      </c>
-      <c r="I375" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I375" t="n">
+        <v>16.39</v>
+      </c>
       <c r="J375" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K375" t="inlineStr">
         <is>
@@ -12935,13 +13005,13 @@
         <v>-6483512.916885326</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I376" t="n">
         <v>16.2</v>
       </c>
       <c r="J376" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K376" t="inlineStr">
         <is>
@@ -12976,13 +13046,13 @@
         <v>-6477312.916885326</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I377" t="n">
         <v>16.14</v>
       </c>
       <c r="J377" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K377" t="inlineStr">
         <is>
@@ -13017,13 +13087,13 @@
         <v>-6515267.508285326</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I378" t="n">
         <v>16.4</v>
       </c>
       <c r="J378" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K378" t="inlineStr">
         <is>
@@ -13058,13 +13128,13 @@
         <v>-6515594.896385326</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I379" t="n">
         <v>16.21</v>
       </c>
       <c r="J379" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K379" t="inlineStr">
         <is>
@@ -13099,13 +13169,13 @@
         <v>-6461582.102285326</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I380" t="n">
         <v>16.2</v>
       </c>
       <c r="J380" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K380" t="inlineStr">
         <is>
@@ -13140,13 +13210,13 @@
         <v>-6492392.281585326</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I381" t="n">
         <v>16.21</v>
       </c>
       <c r="J381" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K381" t="inlineStr">
         <is>
@@ -13181,13 +13251,13 @@
         <v>-6742446.054885326</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I382" t="n">
         <v>16.19</v>
       </c>
       <c r="J382" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K382" t="inlineStr">
         <is>
@@ -13222,11 +13292,13 @@
         <v>-6727356.432585326</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
-      </c>
-      <c r="I383" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I383" t="n">
+        <v>16.14</v>
+      </c>
       <c r="J383" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K383" t="inlineStr">
         <is>
@@ -13261,11 +13333,13 @@
         <v>-6619897.325685326</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
-      </c>
-      <c r="I384" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I384" t="n">
+        <v>16.15</v>
+      </c>
       <c r="J384" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K384" t="inlineStr">
         <is>
@@ -13300,11 +13374,13 @@
         <v>-6619897.325685326</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
-      </c>
-      <c r="I385" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I385" t="n">
+        <v>16.47</v>
+      </c>
       <c r="J385" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K385" t="inlineStr">
         <is>
@@ -13339,11 +13415,13 @@
         <v>-6619897.325685326</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
-      </c>
-      <c r="I386" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I386" t="n">
+        <v>16.47</v>
+      </c>
       <c r="J386" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K386" t="inlineStr">
         <is>
@@ -13378,11 +13456,13 @@
         <v>-6644897.325685326</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
-      </c>
-      <c r="I387" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I387" t="n">
+        <v>16.47</v>
+      </c>
       <c r="J387" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K387" t="inlineStr">
         <is>
@@ -13421,7 +13501,7 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K388" t="inlineStr">
         <is>
@@ -13456,11 +13536,13 @@
         <v>-6644897.325685326</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
-      </c>
-      <c r="I389" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I389" t="n">
+        <v>16.45</v>
+      </c>
       <c r="J389" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K389" t="inlineStr">
         <is>
@@ -13499,7 +13581,7 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K390" t="inlineStr">
         <is>
@@ -13538,7 +13620,7 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K391" t="inlineStr">
         <is>
@@ -13577,7 +13659,7 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K392" t="inlineStr">
         <is>
@@ -13612,11 +13694,13 @@
         <v>-6636634.758685326</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
-      </c>
-      <c r="I393" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I393" t="n">
+        <v>16.45</v>
+      </c>
       <c r="J393" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K393" t="inlineStr">
         <is>
@@ -13651,11 +13735,13 @@
         <v>-6297818.084085327</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
-      </c>
-      <c r="I394" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I394" t="n">
+        <v>16.49</v>
+      </c>
       <c r="J394" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K394" t="inlineStr">
         <is>
@@ -13694,7 +13780,7 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K395" t="inlineStr">
         <is>
@@ -13733,7 +13819,7 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K396" t="inlineStr">
         <is>
@@ -13772,7 +13858,7 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K397" t="inlineStr">
         <is>
@@ -13811,7 +13897,7 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K398" t="inlineStr">
         <is>
@@ -13850,7 +13936,7 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K399" t="inlineStr">
         <is>
@@ -13889,7 +13975,7 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K400" t="inlineStr">
         <is>
@@ -13928,7 +14014,7 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K401" t="inlineStr">
         <is>
@@ -13967,7 +14053,7 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K402" t="inlineStr">
         <is>
@@ -14006,7 +14092,7 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K403" t="inlineStr">
         <is>
@@ -14045,7 +14131,7 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K404" t="inlineStr">
         <is>
@@ -14084,7 +14170,7 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K405" t="inlineStr">
         <is>
@@ -14123,7 +14209,7 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K406" t="inlineStr">
         <is>
@@ -14162,7 +14248,7 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K407" t="inlineStr">
         <is>
@@ -14201,7 +14287,7 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K408" t="inlineStr">
         <is>
@@ -14240,7 +14326,7 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K409" t="inlineStr">
         <is>
@@ -14279,7 +14365,7 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K410" t="inlineStr">
         <is>
@@ -14318,7 +14404,7 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K411" t="inlineStr">
         <is>
@@ -14357,7 +14443,7 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K412" t="inlineStr">
         <is>
@@ -14396,7 +14482,7 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K413" t="inlineStr">
         <is>
@@ -14435,7 +14521,7 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K414" t="inlineStr">
         <is>
@@ -14474,7 +14560,7 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K415" t="inlineStr">
         <is>
@@ -14513,7 +14599,7 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K416" t="inlineStr">
         <is>
@@ -14552,7 +14638,7 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K417" t="inlineStr">
         <is>
@@ -14591,7 +14677,7 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K418" t="inlineStr">
         <is>
@@ -14630,7 +14716,7 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K419" t="inlineStr">
         <is>
@@ -14669,7 +14755,7 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K420" t="inlineStr">
         <is>
@@ -14708,7 +14794,7 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K421" t="inlineStr">
         <is>
@@ -14747,7 +14833,7 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K422" t="inlineStr">
         <is>
@@ -14786,7 +14872,7 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K423" t="inlineStr">
         <is>
@@ -14825,7 +14911,7 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K424" t="inlineStr">
         <is>
@@ -14864,7 +14950,7 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K425" t="inlineStr">
         <is>
@@ -14903,7 +14989,7 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K426" t="inlineStr">
         <is>
@@ -14942,7 +15028,7 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K427" t="inlineStr">
         <is>
@@ -14981,7 +15067,7 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K428" t="inlineStr">
         <is>
@@ -15020,7 +15106,7 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K429" t="inlineStr">
         <is>
@@ -15059,7 +15145,7 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K430" t="inlineStr">
         <is>
@@ -15098,7 +15184,7 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K431" t="inlineStr">
         <is>
@@ -15137,7 +15223,7 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K432" t="inlineStr">
         <is>
@@ -15176,7 +15262,7 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K433" t="inlineStr">
         <is>
@@ -15211,11 +15297,13 @@
         <v>-5216802.229580305</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
-      </c>
-      <c r="I434" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I434" t="n">
+        <v>16.43</v>
+      </c>
       <c r="J434" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K434" t="inlineStr">
         <is>
@@ -15254,7 +15342,7 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K435" t="inlineStr">
         <is>
@@ -15293,7 +15381,7 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K436" t="inlineStr">
         <is>
@@ -15332,7 +15420,7 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K437" t="inlineStr">
         <is>
@@ -15371,7 +15459,7 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K438" t="inlineStr">
         <is>
@@ -15410,7 +15498,7 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K439" t="inlineStr">
         <is>
@@ -15449,7 +15537,7 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K440" t="inlineStr">
         <is>
@@ -15488,7 +15576,7 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K441" t="inlineStr">
         <is>
@@ -15527,7 +15615,7 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K442" t="inlineStr">
         <is>
@@ -15566,7 +15654,7 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K443" t="inlineStr">
         <is>
@@ -15605,7 +15693,7 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K444" t="inlineStr">
         <is>
@@ -15644,7 +15732,7 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K445" t="inlineStr">
         <is>
@@ -15683,7 +15771,7 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K446" t="inlineStr">
         <is>
@@ -15722,7 +15810,7 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K447" t="inlineStr">
         <is>
@@ -15761,7 +15849,7 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K448" t="inlineStr">
         <is>
@@ -15800,7 +15888,7 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K449" t="inlineStr">
         <is>
@@ -15839,7 +15927,7 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K450" t="inlineStr">
         <is>
@@ -15878,7 +15966,7 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K451" t="inlineStr">
         <is>
@@ -15917,7 +16005,7 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K452" t="inlineStr">
         <is>
@@ -15956,7 +16044,7 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K453" t="inlineStr">
         <is>
@@ -15995,7 +16083,7 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K454" t="inlineStr">
         <is>
@@ -16034,7 +16122,7 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K455" t="inlineStr">
         <is>
@@ -16073,7 +16161,7 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K456" t="inlineStr">
         <is>
@@ -16112,7 +16200,7 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K457" t="inlineStr">
         <is>
@@ -16151,7 +16239,7 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K458" t="inlineStr">
         <is>
@@ -16190,7 +16278,7 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K459" t="inlineStr">
         <is>
@@ -16229,7 +16317,7 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K460" t="inlineStr">
         <is>
@@ -16268,7 +16356,7 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K461" t="inlineStr">
         <is>
@@ -16307,7 +16395,7 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K462" t="inlineStr">
         <is>
@@ -16346,7 +16434,7 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K463" t="inlineStr">
         <is>
@@ -16385,7 +16473,7 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K464" t="inlineStr">
         <is>
@@ -16424,7 +16512,7 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K465" t="inlineStr">
         <is>
@@ -16463,7 +16551,7 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K466" t="inlineStr">
         <is>
@@ -16502,7 +16590,7 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K467" t="inlineStr">
         <is>
@@ -16541,7 +16629,7 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K468" t="inlineStr">
         <is>
@@ -16580,7 +16668,7 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K469" t="inlineStr">
         <is>
@@ -16619,7 +16707,7 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K470" t="inlineStr">
         <is>
@@ -16658,7 +16746,7 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K471" t="inlineStr">
         <is>
@@ -16697,7 +16785,7 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K472" t="inlineStr">
         <is>
@@ -16736,7 +16824,7 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K473" t="inlineStr">
         <is>
@@ -16775,7 +16863,7 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K474" t="inlineStr">
         <is>
@@ -16788,6 +16876,6 @@
       <c r="M474" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-22 BackTest FAB.xlsx
+++ b/BackTest/2020-01-22 BackTest FAB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-677409.8999064242</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-669409.8999064242</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-669409.8999064242</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-671439.8999064242</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-684562.7986886682</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-694769.3897886681</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-799803.4619785155</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -10384,14 +10384,10 @@
         <v>-5648401.45261057</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
-      </c>
-      <c r="I303" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="J303" t="n">
-        <v>16.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
+      <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
@@ -10424,14 +10420,8 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10463,14 +10453,8 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11918,14 +11902,10 @@
         <v>-5880287.409585326</v>
       </c>
       <c r="H349" t="n">
-        <v>1</v>
-      </c>
-      <c r="I349" t="n">
-        <v>16.33</v>
-      </c>
-      <c r="J349" t="n">
-        <v>16.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I349" t="inlineStr"/>
+      <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
@@ -11955,19 +11935,11 @@
         <v>-5880287.409585326</v>
       </c>
       <c r="H350" t="n">
-        <v>1</v>
-      </c>
-      <c r="I350" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="J350" t="n">
-        <v>16.33</v>
-      </c>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I350" t="inlineStr"/>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -11996,19 +11968,11 @@
         <v>-5880287.409585326</v>
       </c>
       <c r="H351" t="n">
-        <v>1</v>
-      </c>
-      <c r="I351" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="J351" t="n">
-        <v>16.33</v>
-      </c>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I351" t="inlineStr"/>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12195,9 +12159,11 @@
         <v>-5929443.470385325</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
-      </c>
-      <c r="I356" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I356" t="n">
+        <v>16.33</v>
+      </c>
       <c r="J356" t="n">
         <v>16.5</v>
       </c>
@@ -12234,9 +12200,11 @@
         <v>-5986655.536985325</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
-      </c>
-      <c r="I357" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I357" t="n">
+        <v>16.33</v>
+      </c>
       <c r="J357" t="n">
         <v>16.5</v>
       </c>
@@ -12519,9 +12487,11 @@
         <v>-6237751.798585325</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
-      </c>
-      <c r="I364" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I364" t="n">
+        <v>16.23</v>
+      </c>
       <c r="J364" t="n">
         <v>16.5</v>
       </c>
@@ -12558,11 +12528,9 @@
         <v>-6237751.798585325</v>
       </c>
       <c r="H365" t="n">
-        <v>1</v>
-      </c>
-      <c r="I365" t="n">
-        <v>16.48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I365" t="inlineStr"/>
       <c r="J365" t="n">
         <v>16.5</v>
       </c>
@@ -12677,11 +12645,9 @@
         <v>-6275738.239585325</v>
       </c>
       <c r="H368" t="n">
-        <v>1</v>
-      </c>
-      <c r="I368" t="n">
-        <v>16.23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I368" t="inlineStr"/>
       <c r="J368" t="n">
         <v>16.5</v>
       </c>
@@ -12718,11 +12684,9 @@
         <v>-6388619.252985325</v>
       </c>
       <c r="H369" t="n">
-        <v>1</v>
-      </c>
-      <c r="I369" t="n">
-        <v>16.23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I369" t="inlineStr"/>
       <c r="J369" t="n">
         <v>16.5</v>
       </c>
@@ -12841,11 +12805,9 @@
         <v>-6376085.616385325</v>
       </c>
       <c r="H372" t="n">
-        <v>1</v>
-      </c>
-      <c r="I372" t="n">
-        <v>16.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I372" t="inlineStr"/>
       <c r="J372" t="n">
         <v>16.5</v>
       </c>
@@ -12882,11 +12844,9 @@
         <v>-6381117.991885325</v>
       </c>
       <c r="H373" t="n">
-        <v>1</v>
-      </c>
-      <c r="I373" t="n">
-        <v>16.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I373" t="inlineStr"/>
       <c r="J373" t="n">
         <v>16.5</v>
       </c>
@@ -12923,11 +12883,9 @@
         <v>-6358276.179985325</v>
       </c>
       <c r="H374" t="n">
-        <v>1</v>
-      </c>
-      <c r="I374" t="n">
-        <v>16.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I374" t="inlineStr"/>
       <c r="J374" t="n">
         <v>16.5</v>
       </c>
@@ -12964,11 +12922,9 @@
         <v>-6469588.655085325</v>
       </c>
       <c r="H375" t="n">
-        <v>1</v>
-      </c>
-      <c r="I375" t="n">
-        <v>16.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I375" t="inlineStr"/>
       <c r="J375" t="n">
         <v>16.5</v>
       </c>
@@ -13005,11 +12961,9 @@
         <v>-6483512.916885326</v>
       </c>
       <c r="H376" t="n">
-        <v>1</v>
-      </c>
-      <c r="I376" t="n">
-        <v>16.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I376" t="inlineStr"/>
       <c r="J376" t="n">
         <v>16.5</v>
       </c>
@@ -13046,11 +13000,9 @@
         <v>-6477312.916885326</v>
       </c>
       <c r="H377" t="n">
-        <v>1</v>
-      </c>
-      <c r="I377" t="n">
-        <v>16.14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I377" t="inlineStr"/>
       <c r="J377" t="n">
         <v>16.5</v>
       </c>
@@ -13087,11 +13039,9 @@
         <v>-6515267.508285326</v>
       </c>
       <c r="H378" t="n">
-        <v>1</v>
-      </c>
-      <c r="I378" t="n">
-        <v>16.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I378" t="inlineStr"/>
       <c r="J378" t="n">
         <v>16.5</v>
       </c>
@@ -13128,11 +13078,9 @@
         <v>-6515594.896385326</v>
       </c>
       <c r="H379" t="n">
-        <v>1</v>
-      </c>
-      <c r="I379" t="n">
-        <v>16.21</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I379" t="inlineStr"/>
       <c r="J379" t="n">
         <v>16.5</v>
       </c>
@@ -13374,11 +13322,9 @@
         <v>-6619897.325685326</v>
       </c>
       <c r="H385" t="n">
-        <v>1</v>
-      </c>
-      <c r="I385" t="n">
-        <v>16.47</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I385" t="inlineStr"/>
       <c r="J385" t="n">
         <v>16.5</v>
       </c>
@@ -13415,11 +13361,9 @@
         <v>-6619897.325685326</v>
       </c>
       <c r="H386" t="n">
-        <v>1</v>
-      </c>
-      <c r="I386" t="n">
-        <v>16.47</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I386" t="inlineStr"/>
       <c r="J386" t="n">
         <v>16.5</v>
       </c>
@@ -13456,11 +13400,9 @@
         <v>-6644897.325685326</v>
       </c>
       <c r="H387" t="n">
-        <v>1</v>
-      </c>
-      <c r="I387" t="n">
-        <v>16.47</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I387" t="inlineStr"/>
       <c r="J387" t="n">
         <v>16.5</v>
       </c>
@@ -13536,11 +13478,9 @@
         <v>-6644897.325685326</v>
       </c>
       <c r="H389" t="n">
-        <v>1</v>
-      </c>
-      <c r="I389" t="n">
-        <v>16.45</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I389" t="inlineStr"/>
       <c r="J389" t="n">
         <v>16.5</v>
       </c>
@@ -13694,11 +13634,9 @@
         <v>-6636634.758685326</v>
       </c>
       <c r="H393" t="n">
-        <v>1</v>
-      </c>
-      <c r="I393" t="n">
-        <v>16.45</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I393" t="inlineStr"/>
       <c r="J393" t="n">
         <v>16.5</v>
       </c>
@@ -13735,11 +13673,9 @@
         <v>-6297818.084085327</v>
       </c>
       <c r="H394" t="n">
-        <v>1</v>
-      </c>
-      <c r="I394" t="n">
-        <v>16.49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I394" t="inlineStr"/>
       <c r="J394" t="n">
         <v>16.5</v>
       </c>
@@ -14712,7 +14648,7 @@
         <v>-4836526.664380305</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="n">
@@ -14720,11 +14656,11 @@
       </c>
       <c r="K419" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L419" t="n">
-        <v>1</v>
+        <v>1.038030303030303</v>
       </c>
       <c r="M419" t="inlineStr"/>
     </row>
@@ -14751,17 +14687,11 @@
         <v>-4838275.301480304</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J420" t="inlineStr"/>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14790,17 +14720,11 @@
         <v>-4844275.301480304</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J421" t="inlineStr"/>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14829,17 +14753,11 @@
         <v>-4860923.935380304</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J422" t="inlineStr"/>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14868,17 +14786,11 @@
         <v>-4860456.350580304</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J423" t="inlineStr"/>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14907,17 +14819,11 @@
         <v>-4860456.350580304</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J424" t="inlineStr"/>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14946,17 +14852,11 @@
         <v>-4868456.350580304</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J425" t="inlineStr"/>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14985,17 +14885,11 @@
         <v>-5000654.672480304</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J426" t="inlineStr"/>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15024,17 +14918,11 @@
         <v>-5000654.672480304</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J427" t="inlineStr"/>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15066,14 +14954,8 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J428" t="inlineStr"/>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15105,14 +14987,8 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J429" t="inlineStr"/>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15144,14 +15020,8 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J430" t="inlineStr"/>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15183,14 +15053,8 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J431" t="inlineStr"/>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15222,14 +15086,8 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J432" t="inlineStr"/>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15261,14 +15119,8 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J433" t="inlineStr"/>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15297,19 +15149,11 @@
         <v>-5216802.229580305</v>
       </c>
       <c r="H434" t="n">
-        <v>1</v>
-      </c>
-      <c r="I434" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="J434" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I434" t="inlineStr"/>
+      <c r="J434" t="inlineStr"/>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15341,14 +15185,8 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J435" t="inlineStr"/>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15377,17 +15215,11 @@
         <v>-5268013.010380304</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J436" t="inlineStr"/>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15419,14 +15251,8 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J437" t="inlineStr"/>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15458,14 +15284,8 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J438" t="inlineStr"/>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15497,14 +15317,8 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J439" t="inlineStr"/>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15536,14 +15350,8 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J440" t="inlineStr"/>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15575,14 +15383,8 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J441" t="inlineStr"/>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15614,14 +15416,8 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J442" t="inlineStr"/>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15653,14 +15449,8 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J443" t="inlineStr"/>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15692,14 +15482,8 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J444" t="inlineStr"/>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15731,14 +15515,8 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J445" t="inlineStr"/>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15770,14 +15548,8 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J446" t="inlineStr"/>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15809,14 +15581,8 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J447" t="inlineStr"/>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15848,14 +15614,8 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J448" t="inlineStr"/>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15887,14 +15647,8 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J449" t="inlineStr"/>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15926,14 +15680,8 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J450" t="inlineStr"/>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15965,14 +15713,8 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J451" t="inlineStr"/>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -16004,14 +15746,8 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J452" t="inlineStr"/>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -16043,14 +15779,8 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J453" t="inlineStr"/>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -16082,14 +15812,8 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J454" t="inlineStr"/>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -16121,14 +15845,8 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J455" t="inlineStr"/>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -16160,14 +15878,8 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J456" t="inlineStr"/>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16199,14 +15911,8 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J457" t="inlineStr"/>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16238,14 +15944,8 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J458" t="inlineStr"/>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16277,14 +15977,8 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J459" t="inlineStr"/>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16316,14 +16010,8 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J460" t="inlineStr"/>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16355,14 +16043,8 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J461" t="inlineStr"/>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16394,14 +16076,8 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J462" t="inlineStr"/>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16433,14 +16109,8 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J463" t="inlineStr"/>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16472,14 +16142,8 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J464" t="inlineStr"/>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16511,14 +16175,8 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J465" t="inlineStr"/>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16550,14 +16208,8 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J466" t="inlineStr"/>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16589,14 +16241,8 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J467" t="inlineStr"/>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16628,14 +16274,8 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J468" t="inlineStr"/>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16667,14 +16307,8 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J469" t="inlineStr"/>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16706,14 +16340,8 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J470" t="inlineStr"/>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16745,14 +16373,8 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J471" t="inlineStr"/>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16784,14 +16406,8 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J472" t="inlineStr"/>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16823,14 +16439,8 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J473" t="inlineStr"/>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16862,20 +16472,14 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J474" t="inlineStr"/>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
       <c r="M474" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-22 BackTest FAB.xlsx
+++ b/BackTest/2020-01-22 BackTest FAB.xlsx
@@ -451,7 +451,7 @@
         <v>-677409.8999064242</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-669409.8999064242</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-669409.8999064242</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-671439.8999064242</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-671439.8999064242</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-671406.6892064242</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-671439.6892064242</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-668546.7761886682</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-668546.7761886682</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-684562.7986886682</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-684562.7986886682</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-684336.3172886681</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-694769.3897886681</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-850072.1916886681</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-803012.7039325385</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-803012.7039325385</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-808942.2666325385</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-810119.5539325385</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-878108.4102785155</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-883908.4102785155</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-902886.7091785156</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-902886.7091785156</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-902886.7091785156</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-908003.4805785156</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-903943.1666785156</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-891943.1666785156</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-791452.4389785156</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-791452.4389785156</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-966789.1533785155</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-966789.1533785155</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-1144298.692401637</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-1128863.847801637</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-1128863.847801637</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-1128863.847801637</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-1128863.847801637</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-1131677.300101637</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-1314490.775001637</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-982775.8139016369</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-964745.8139016369</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-965745.8139016369</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-965745.8139016369</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-965745.8139016369</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-965745.8139016369</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-965745.8139016369</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-965745.8139016369</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-965745.8139016369</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-965745.8139016369</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-965909.1097016368</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-941146.1222694732</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-921467.6822694732</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-936601.7155694732</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-936601.7155694732</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-936601.7155694732</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-926023.9769694732</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-926023.9769694732</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-926023.9769694732</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-926023.9769694732</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-926023.9769694732</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-926023.9769694732</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-942003.3050694732</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-1048620.849069473</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-1038881.475369473</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-1038551.475369473</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-1038582.475369473</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-1039268.010069473</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-1041138.964469473</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-1041108.964469473</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-1041108.964469473</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-1058282.360169473</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-1267384.684369473</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -12001,14 +12001,10 @@
         <v>-5891410.276085326</v>
       </c>
       <c r="H352" t="n">
-        <v>1</v>
-      </c>
-      <c r="I352" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="J352" t="n">
-        <v>16.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I352" t="inlineStr"/>
+      <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
@@ -12038,1098 +12034,926 @@
         <v>-5891379.276085326</v>
       </c>
       <c r="H353" t="n">
-        <v>1</v>
-      </c>
-      <c r="I353" t="n">
-        <v>16.35</v>
-      </c>
-      <c r="J353" t="n">
+        <v>0</v>
+      </c>
+      <c r="I353" t="inlineStr"/>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
+      <c r="L353" t="n">
+        <v>1</v>
+      </c>
+      <c r="M353" t="inlineStr"/>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="B354" t="n">
+        <v>16.49</v>
+      </c>
+      <c r="C354" t="n">
         <v>16.5</v>
       </c>
-      <c r="K353" t="inlineStr">
+      <c r="D354" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E354" t="n">
+        <v>16.49</v>
+      </c>
+      <c r="F354" t="n">
+        <v>302274.617</v>
+      </c>
+      <c r="G354" t="n">
+        <v>-5891379.276085326</v>
+      </c>
+      <c r="H354" t="n">
+        <v>0</v>
+      </c>
+      <c r="I354" t="inlineStr"/>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
+      <c r="L354" t="n">
+        <v>1</v>
+      </c>
+      <c r="M354" t="inlineStr"/>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="n">
+        <v>353</v>
+      </c>
+      <c r="B355" t="n">
+        <v>16.36</v>
+      </c>
+      <c r="C355" t="n">
+        <v>16.33</v>
+      </c>
+      <c r="D355" t="n">
+        <v>16.36</v>
+      </c>
+      <c r="E355" t="n">
+        <v>16.33</v>
+      </c>
+      <c r="F355" t="n">
+        <v>38064.1943</v>
+      </c>
+      <c r="G355" t="n">
+        <v>-5929443.470385325</v>
+      </c>
+      <c r="H355" t="n">
+        <v>0</v>
+      </c>
+      <c r="I355" t="inlineStr"/>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
+      <c r="L355" t="n">
+        <v>1</v>
+      </c>
+      <c r="M355" t="inlineStr"/>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="n">
+        <v>354</v>
+      </c>
+      <c r="B356" t="n">
+        <v>16.33</v>
+      </c>
+      <c r="C356" t="n">
+        <v>16.33</v>
+      </c>
+      <c r="D356" t="n">
+        <v>16.33</v>
+      </c>
+      <c r="E356" t="n">
+        <v>16.33</v>
+      </c>
+      <c r="F356" t="n">
+        <v>41759.7555</v>
+      </c>
+      <c r="G356" t="n">
+        <v>-5929443.470385325</v>
+      </c>
+      <c r="H356" t="n">
+        <v>0</v>
+      </c>
+      <c r="I356" t="inlineStr"/>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
+      <c r="L356" t="n">
+        <v>1</v>
+      </c>
+      <c r="M356" t="inlineStr"/>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="B357" t="n">
+        <v>16.33</v>
+      </c>
+      <c r="C357" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="D357" t="n">
+        <v>16.33</v>
+      </c>
+      <c r="E357" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="F357" t="n">
+        <v>57212.0666</v>
+      </c>
+      <c r="G357" t="n">
+        <v>-5986655.536985325</v>
+      </c>
+      <c r="H357" t="n">
+        <v>0</v>
+      </c>
+      <c r="I357" t="inlineStr"/>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
+      <c r="L357" t="n">
+        <v>1</v>
+      </c>
+      <c r="M357" t="inlineStr"/>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="B358" t="n">
+        <v>16.31</v>
+      </c>
+      <c r="C358" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="D358" t="n">
+        <v>16.31</v>
+      </c>
+      <c r="E358" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="F358" t="n">
+        <v>51618.3958</v>
+      </c>
+      <c r="G358" t="n">
+        <v>-5986655.536985325</v>
+      </c>
+      <c r="H358" t="n">
+        <v>0</v>
+      </c>
+      <c r="I358" t="inlineStr"/>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
+      <c r="L358" t="n">
+        <v>1</v>
+      </c>
+      <c r="M358" t="inlineStr"/>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="B359" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="C359" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="D359" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="E359" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="F359" t="n">
+        <v>1267.2264</v>
+      </c>
+      <c r="G359" t="n">
+        <v>-5986655.536985325</v>
+      </c>
+      <c r="H359" t="n">
+        <v>0</v>
+      </c>
+      <c r="I359" t="inlineStr"/>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
+      <c r="L359" t="n">
+        <v>1</v>
+      </c>
+      <c r="M359" t="inlineStr"/>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="B360" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="C360" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="D360" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="E360" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="F360" t="n">
+        <v>73626.9681</v>
+      </c>
+      <c r="G360" t="n">
+        <v>-5986655.536985325</v>
+      </c>
+      <c r="H360" t="n">
+        <v>0</v>
+      </c>
+      <c r="I360" t="inlineStr"/>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
+      <c r="L360" t="n">
+        <v>1</v>
+      </c>
+      <c r="M360" t="inlineStr"/>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="B361" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="C361" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="D361" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="E361" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="F361" t="n">
+        <v>175762.0267</v>
+      </c>
+      <c r="G361" t="n">
+        <v>-5986655.536985325</v>
+      </c>
+      <c r="H361" t="n">
+        <v>0</v>
+      </c>
+      <c r="I361" t="inlineStr"/>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
+      <c r="L361" t="n">
+        <v>1</v>
+      </c>
+      <c r="M361" t="inlineStr"/>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="B362" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="C362" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="D362" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="E362" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="F362" t="n">
+        <v>50031.0945</v>
+      </c>
+      <c r="G362" t="n">
+        <v>-5936624.442485325</v>
+      </c>
+      <c r="H362" t="n">
+        <v>0</v>
+      </c>
+      <c r="I362" t="inlineStr"/>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
+      <c r="L362" t="n">
+        <v>1</v>
+      </c>
+      <c r="M362" t="inlineStr"/>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="B363" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="C363" t="n">
+        <v>16.23</v>
+      </c>
+      <c r="D363" t="n">
+        <v>16.31</v>
+      </c>
+      <c r="E363" t="n">
+        <v>16.23</v>
+      </c>
+      <c r="F363" t="n">
+        <v>315866.1917</v>
+      </c>
+      <c r="G363" t="n">
+        <v>-6252490.634185325</v>
+      </c>
+      <c r="H363" t="n">
+        <v>0</v>
+      </c>
+      <c r="I363" t="inlineStr"/>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
+      <c r="L363" t="n">
+        <v>1</v>
+      </c>
+      <c r="M363" t="inlineStr"/>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="n">
+        <v>362</v>
+      </c>
+      <c r="B364" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="C364" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="D364" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="E364" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="F364" t="n">
+        <v>14738.8356</v>
+      </c>
+      <c r="G364" t="n">
+        <v>-6237751.798585325</v>
+      </c>
+      <c r="H364" t="n">
+        <v>0</v>
+      </c>
+      <c r="I364" t="inlineStr"/>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
+      <c r="L364" t="n">
+        <v>1</v>
+      </c>
+      <c r="M364" t="inlineStr"/>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="n">
+        <v>363</v>
+      </c>
+      <c r="B365" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="C365" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="D365" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="E365" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="F365" t="n">
+        <v>3723.1556</v>
+      </c>
+      <c r="G365" t="n">
+        <v>-6237751.798585325</v>
+      </c>
+      <c r="H365" t="n">
+        <v>0</v>
+      </c>
+      <c r="I365" t="inlineStr"/>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
+      <c r="L365" t="n">
+        <v>1</v>
+      </c>
+      <c r="M365" t="inlineStr"/>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="n">
+        <v>364</v>
+      </c>
+      <c r="B366" t="n">
+        <v>16.49</v>
+      </c>
+      <c r="C366" t="n">
+        <v>16.49</v>
+      </c>
+      <c r="D366" t="n">
+        <v>16.49</v>
+      </c>
+      <c r="E366" t="n">
+        <v>16.49</v>
+      </c>
+      <c r="F366" t="n">
+        <v>705.9392</v>
+      </c>
+      <c r="G366" t="n">
+        <v>-6237045.859385326</v>
+      </c>
+      <c r="H366" t="n">
+        <v>0</v>
+      </c>
+      <c r="I366" t="inlineStr"/>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
+      <c r="L366" t="n">
+        <v>1</v>
+      </c>
+      <c r="M366" t="inlineStr"/>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="n">
+        <v>365</v>
+      </c>
+      <c r="B367" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="C367" t="n">
+        <v>16.23</v>
+      </c>
+      <c r="D367" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="E367" t="n">
+        <v>16.23</v>
+      </c>
+      <c r="F367" t="n">
+        <v>38692.3802</v>
+      </c>
+      <c r="G367" t="n">
+        <v>-6275738.239585325</v>
+      </c>
+      <c r="H367" t="n">
+        <v>0</v>
+      </c>
+      <c r="I367" t="inlineStr"/>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
+      <c r="L367" t="n">
+        <v>1</v>
+      </c>
+      <c r="M367" t="inlineStr"/>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="B368" t="n">
+        <v>16.23</v>
+      </c>
+      <c r="C368" t="n">
+        <v>16.23</v>
+      </c>
+      <c r="D368" t="n">
+        <v>16.23</v>
+      </c>
+      <c r="E368" t="n">
+        <v>16.23</v>
+      </c>
+      <c r="F368" t="n">
+        <v>117383.7324</v>
+      </c>
+      <c r="G368" t="n">
+        <v>-6275738.239585325</v>
+      </c>
+      <c r="H368" t="n">
+        <v>0</v>
+      </c>
+      <c r="I368" t="inlineStr"/>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
+      <c r="L368" t="n">
+        <v>1</v>
+      </c>
+      <c r="M368" t="inlineStr"/>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="n">
+        <v>367</v>
+      </c>
+      <c r="B369" t="n">
+        <v>16.23</v>
+      </c>
+      <c r="C369" t="n">
+        <v>16.12</v>
+      </c>
+      <c r="D369" t="n">
+        <v>16.23</v>
+      </c>
+      <c r="E369" t="n">
+        <v>16.12</v>
+      </c>
+      <c r="F369" t="n">
+        <v>112881.0134</v>
+      </c>
+      <c r="G369" t="n">
+        <v>-6388619.252985325</v>
+      </c>
+      <c r="H369" t="n">
+        <v>0</v>
+      </c>
+      <c r="I369" t="inlineStr"/>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
+      <c r="L369" t="n">
+        <v>1</v>
+      </c>
+      <c r="M369" t="inlineStr"/>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="n">
+        <v>368</v>
+      </c>
+      <c r="B370" t="n">
+        <v>16.39</v>
+      </c>
+      <c r="C370" t="n">
+        <v>16.39</v>
+      </c>
+      <c r="D370" t="n">
+        <v>16.39</v>
+      </c>
+      <c r="E370" t="n">
+        <v>16.39</v>
+      </c>
+      <c r="F370" t="n">
+        <v>9202.933000000001</v>
+      </c>
+      <c r="G370" t="n">
+        <v>-6379416.319985325</v>
+      </c>
+      <c r="H370" t="n">
+        <v>0</v>
+      </c>
+      <c r="I370" t="inlineStr"/>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
+      <c r="L370" t="n">
+        <v>1</v>
+      </c>
+      <c r="M370" t="inlineStr"/>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="n">
+        <v>369</v>
+      </c>
+      <c r="B371" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="C371" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="D371" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="E371" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="F371" t="n">
+        <v>3330.7036</v>
+      </c>
+      <c r="G371" t="n">
+        <v>-6376085.616385325</v>
+      </c>
+      <c r="H371" t="n">
+        <v>0</v>
+      </c>
+      <c r="I371" t="inlineStr"/>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
+      <c r="L371" t="n">
+        <v>1</v>
+      </c>
+      <c r="M371" t="inlineStr"/>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="n">
+        <v>370</v>
+      </c>
+      <c r="B372" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="C372" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="D372" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="E372" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="F372" t="n">
+        <v>300</v>
+      </c>
+      <c r="G372" t="n">
+        <v>-6376085.616385325</v>
+      </c>
+      <c r="H372" t="n">
+        <v>0</v>
+      </c>
+      <c r="I372" t="inlineStr"/>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
+      <c r="L372" t="n">
+        <v>1</v>
+      </c>
+      <c r="M372" t="inlineStr"/>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="n">
+        <v>371</v>
+      </c>
+      <c r="B373" t="n">
+        <v>16.39</v>
+      </c>
+      <c r="C373" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="D373" t="n">
+        <v>16.39</v>
+      </c>
+      <c r="E373" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="F373" t="n">
+        <v>5032.3755</v>
+      </c>
+      <c r="G373" t="n">
+        <v>-6381117.991885325</v>
+      </c>
+      <c r="H373" t="n">
+        <v>0</v>
+      </c>
+      <c r="I373" t="inlineStr"/>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
+      <c r="L373" t="n">
+        <v>1</v>
+      </c>
+      <c r="M373" t="inlineStr"/>
+    </row>
+    <row r="374">
+      <c r="A374" s="1" t="n">
+        <v>372</v>
+      </c>
+      <c r="B374" t="n">
+        <v>16.21</v>
+      </c>
+      <c r="C374" t="n">
+        <v>16.39</v>
+      </c>
+      <c r="D374" t="n">
+        <v>16.39</v>
+      </c>
+      <c r="E374" t="n">
+        <v>16.21</v>
+      </c>
+      <c r="F374" t="n">
+        <v>22841.8119</v>
+      </c>
+      <c r="G374" t="n">
+        <v>-6358276.179985325</v>
+      </c>
+      <c r="H374" t="n">
+        <v>0</v>
+      </c>
+      <c r="I374" t="inlineStr"/>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
+      <c r="L374" t="n">
+        <v>1</v>
+      </c>
+      <c r="M374" t="inlineStr"/>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="n">
+        <v>373</v>
+      </c>
+      <c r="B375" t="n">
+        <v>16.19</v>
+      </c>
+      <c r="C375" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="D375" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="E375" t="n">
+        <v>16.15</v>
+      </c>
+      <c r="F375" t="n">
+        <v>111312.4751</v>
+      </c>
+      <c r="G375" t="n">
+        <v>-6469588.655085325</v>
+      </c>
+      <c r="H375" t="n">
+        <v>0</v>
+      </c>
+      <c r="I375" t="inlineStr"/>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
+      <c r="L375" t="n">
+        <v>1</v>
+      </c>
+      <c r="M375" t="inlineStr"/>
+    </row>
+    <row r="376">
+      <c r="A376" s="1" t="n">
+        <v>374</v>
+      </c>
+      <c r="B376" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="C376" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="D376" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="E376" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="F376" t="n">
+        <v>13924.2618</v>
+      </c>
+      <c r="G376" t="n">
+        <v>-6483512.916885326</v>
+      </c>
+      <c r="H376" t="n">
+        <v>0</v>
+      </c>
+      <c r="I376" t="inlineStr"/>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
+      <c r="L376" t="n">
+        <v>1</v>
+      </c>
+      <c r="M376" t="inlineStr"/>
+    </row>
+    <row r="377">
+      <c r="A377" s="1" t="n">
+        <v>375</v>
+      </c>
+      <c r="B377" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="C377" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="D377" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="E377" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="F377" t="n">
+        <v>6200</v>
+      </c>
+      <c r="G377" t="n">
+        <v>-6477312.916885326</v>
+      </c>
+      <c r="H377" t="n">
+        <v>1</v>
+      </c>
+      <c r="I377" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="J377" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="K377" t="inlineStr"/>
+      <c r="L377" t="n">
+        <v>1</v>
+      </c>
+      <c r="M377" t="inlineStr"/>
+    </row>
+    <row r="378">
+      <c r="A378" s="1" t="n">
+        <v>376</v>
+      </c>
+      <c r="B378" t="n">
+        <v>16.21</v>
+      </c>
+      <c r="C378" t="n">
+        <v>16.21</v>
+      </c>
+      <c r="D378" t="n">
+        <v>16.21</v>
+      </c>
+      <c r="E378" t="n">
+        <v>16.21</v>
+      </c>
+      <c r="F378" t="n">
+        <v>37954.5914</v>
+      </c>
+      <c r="G378" t="n">
+        <v>-6515267.508285326</v>
+      </c>
+      <c r="H378" t="n">
+        <v>0</v>
+      </c>
+      <c r="I378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="K378" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L353" t="n">
-        <v>1</v>
-      </c>
-      <c r="M353" t="inlineStr"/>
-    </row>
-    <row r="354">
-      <c r="A354" s="1" t="n">
-        <v>352</v>
-      </c>
-      <c r="B354" t="n">
-        <v>16.49</v>
-      </c>
-      <c r="C354" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="D354" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="E354" t="n">
-        <v>16.49</v>
-      </c>
-      <c r="F354" t="n">
-        <v>302274.617</v>
-      </c>
-      <c r="G354" t="n">
-        <v>-5891379.276085326</v>
-      </c>
-      <c r="H354" t="n">
-        <v>1</v>
-      </c>
-      <c r="I354" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="J354" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="K354" t="inlineStr">
+      <c r="L378" t="n">
+        <v>1</v>
+      </c>
+      <c r="M378" t="inlineStr"/>
+    </row>
+    <row r="379">
+      <c r="A379" s="1" t="n">
+        <v>377</v>
+      </c>
+      <c r="B379" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="C379" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="D379" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="E379" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="F379" t="n">
+        <v>327.3881</v>
+      </c>
+      <c r="G379" t="n">
+        <v>-6515594.896385326</v>
+      </c>
+      <c r="H379" t="n">
+        <v>0</v>
+      </c>
+      <c r="I379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L379" t="n">
+        <v>1</v>
+      </c>
+      <c r="M379" t="inlineStr"/>
+    </row>
+    <row r="380">
+      <c r="A380" s="1" t="n">
+        <v>378</v>
+      </c>
+      <c r="B380" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="C380" t="n">
+        <v>16.21</v>
+      </c>
+      <c r="D380" t="n">
+        <v>16.21</v>
+      </c>
+      <c r="E380" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="F380" t="n">
+        <v>54012.7941</v>
+      </c>
+      <c r="G380" t="n">
+        <v>-6461582.102285326</v>
+      </c>
+      <c r="H380" t="n">
+        <v>1</v>
+      </c>
+      <c r="I380" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="J380" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="K380" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L354" t="n">
-        <v>1</v>
-      </c>
-      <c r="M354" t="inlineStr"/>
-    </row>
-    <row r="355">
-      <c r="A355" s="1" t="n">
-        <v>353</v>
-      </c>
-      <c r="B355" t="n">
-        <v>16.36</v>
-      </c>
-      <c r="C355" t="n">
-        <v>16.33</v>
-      </c>
-      <c r="D355" t="n">
-        <v>16.36</v>
-      </c>
-      <c r="E355" t="n">
-        <v>16.33</v>
-      </c>
-      <c r="F355" t="n">
-        <v>38064.1943</v>
-      </c>
-      <c r="G355" t="n">
-        <v>-5929443.470385325</v>
-      </c>
-      <c r="H355" t="n">
-        <v>0</v>
-      </c>
-      <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L355" t="n">
-        <v>1</v>
-      </c>
-      <c r="M355" t="inlineStr"/>
-    </row>
-    <row r="356">
-      <c r="A356" s="1" t="n">
-        <v>354</v>
-      </c>
-      <c r="B356" t="n">
-        <v>16.33</v>
-      </c>
-      <c r="C356" t="n">
-        <v>16.33</v>
-      </c>
-      <c r="D356" t="n">
-        <v>16.33</v>
-      </c>
-      <c r="E356" t="n">
-        <v>16.33</v>
-      </c>
-      <c r="F356" t="n">
-        <v>41759.7555</v>
-      </c>
-      <c r="G356" t="n">
-        <v>-5929443.470385325</v>
-      </c>
-      <c r="H356" t="n">
-        <v>1</v>
-      </c>
-      <c r="I356" t="n">
-        <v>16.33</v>
-      </c>
-      <c r="J356" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L356" t="n">
-        <v>1</v>
-      </c>
-      <c r="M356" t="inlineStr"/>
-    </row>
-    <row r="357">
-      <c r="A357" s="1" t="n">
-        <v>355</v>
-      </c>
-      <c r="B357" t="n">
-        <v>16.33</v>
-      </c>
-      <c r="C357" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="D357" t="n">
-        <v>16.33</v>
-      </c>
-      <c r="E357" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="F357" t="n">
-        <v>57212.0666</v>
-      </c>
-      <c r="G357" t="n">
-        <v>-5986655.536985325</v>
-      </c>
-      <c r="H357" t="n">
-        <v>1</v>
-      </c>
-      <c r="I357" t="n">
-        <v>16.33</v>
-      </c>
-      <c r="J357" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L357" t="n">
-        <v>1</v>
-      </c>
-      <c r="M357" t="inlineStr"/>
-    </row>
-    <row r="358">
-      <c r="A358" s="1" t="n">
-        <v>356</v>
-      </c>
-      <c r="B358" t="n">
-        <v>16.31</v>
-      </c>
-      <c r="C358" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="D358" t="n">
-        <v>16.31</v>
-      </c>
-      <c r="E358" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="F358" t="n">
-        <v>51618.3958</v>
-      </c>
-      <c r="G358" t="n">
-        <v>-5986655.536985325</v>
-      </c>
-      <c r="H358" t="n">
-        <v>1</v>
-      </c>
-      <c r="I358" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="J358" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L358" t="n">
-        <v>1</v>
-      </c>
-      <c r="M358" t="inlineStr"/>
-    </row>
-    <row r="359">
-      <c r="A359" s="1" t="n">
-        <v>357</v>
-      </c>
-      <c r="B359" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="C359" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="D359" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="E359" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="F359" t="n">
-        <v>1267.2264</v>
-      </c>
-      <c r="G359" t="n">
-        <v>-5986655.536985325</v>
-      </c>
-      <c r="H359" t="n">
-        <v>1</v>
-      </c>
-      <c r="I359" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="J359" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L359" t="n">
-        <v>1</v>
-      </c>
-      <c r="M359" t="inlineStr"/>
-    </row>
-    <row r="360">
-      <c r="A360" s="1" t="n">
-        <v>358</v>
-      </c>
-      <c r="B360" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="C360" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="D360" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="E360" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="F360" t="n">
-        <v>73626.9681</v>
-      </c>
-      <c r="G360" t="n">
-        <v>-5986655.536985325</v>
-      </c>
-      <c r="H360" t="n">
-        <v>1</v>
-      </c>
-      <c r="I360" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="J360" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L360" t="n">
-        <v>1</v>
-      </c>
-      <c r="M360" t="inlineStr"/>
-    </row>
-    <row r="361">
-      <c r="A361" s="1" t="n">
-        <v>359</v>
-      </c>
-      <c r="B361" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="C361" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="D361" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="E361" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="F361" t="n">
-        <v>175762.0267</v>
-      </c>
-      <c r="G361" t="n">
-        <v>-5986655.536985325</v>
-      </c>
-      <c r="H361" t="n">
-        <v>1</v>
-      </c>
-      <c r="I361" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="J361" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L361" t="n">
-        <v>1</v>
-      </c>
-      <c r="M361" t="inlineStr"/>
-    </row>
-    <row r="362">
-      <c r="A362" s="1" t="n">
-        <v>360</v>
-      </c>
-      <c r="B362" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="C362" t="n">
-        <v>16.48</v>
-      </c>
-      <c r="D362" t="n">
-        <v>16.48</v>
-      </c>
-      <c r="E362" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="F362" t="n">
-        <v>50031.0945</v>
-      </c>
-      <c r="G362" t="n">
-        <v>-5936624.442485325</v>
-      </c>
-      <c r="H362" t="n">
-        <v>1</v>
-      </c>
-      <c r="I362" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="J362" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L362" t="n">
-        <v>1</v>
-      </c>
-      <c r="M362" t="inlineStr"/>
-    </row>
-    <row r="363">
-      <c r="A363" s="1" t="n">
-        <v>361</v>
-      </c>
-      <c r="B363" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="C363" t="n">
-        <v>16.23</v>
-      </c>
-      <c r="D363" t="n">
-        <v>16.31</v>
-      </c>
-      <c r="E363" t="n">
-        <v>16.23</v>
-      </c>
-      <c r="F363" t="n">
-        <v>315866.1917</v>
-      </c>
-      <c r="G363" t="n">
-        <v>-6252490.634185325</v>
-      </c>
-      <c r="H363" t="n">
-        <v>1</v>
-      </c>
-      <c r="I363" t="n">
-        <v>16.48</v>
-      </c>
-      <c r="J363" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L363" t="n">
-        <v>1</v>
-      </c>
-      <c r="M363" t="inlineStr"/>
-    </row>
-    <row r="364">
-      <c r="A364" s="1" t="n">
-        <v>362</v>
-      </c>
-      <c r="B364" t="n">
-        <v>16.48</v>
-      </c>
-      <c r="C364" t="n">
-        <v>16.48</v>
-      </c>
-      <c r="D364" t="n">
-        <v>16.48</v>
-      </c>
-      <c r="E364" t="n">
-        <v>16.48</v>
-      </c>
-      <c r="F364" t="n">
-        <v>14738.8356</v>
-      </c>
-      <c r="G364" t="n">
-        <v>-6237751.798585325</v>
-      </c>
-      <c r="H364" t="n">
-        <v>1</v>
-      </c>
-      <c r="I364" t="n">
-        <v>16.23</v>
-      </c>
-      <c r="J364" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L364" t="n">
-        <v>1</v>
-      </c>
-      <c r="M364" t="inlineStr"/>
-    </row>
-    <row r="365">
-      <c r="A365" s="1" t="n">
-        <v>363</v>
-      </c>
-      <c r="B365" t="n">
-        <v>16.48</v>
-      </c>
-      <c r="C365" t="n">
-        <v>16.48</v>
-      </c>
-      <c r="D365" t="n">
-        <v>16.48</v>
-      </c>
-      <c r="E365" t="n">
-        <v>16.48</v>
-      </c>
-      <c r="F365" t="n">
-        <v>3723.1556</v>
-      </c>
-      <c r="G365" t="n">
-        <v>-6237751.798585325</v>
-      </c>
-      <c r="H365" t="n">
-        <v>0</v>
-      </c>
-      <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L365" t="n">
-        <v>1</v>
-      </c>
-      <c r="M365" t="inlineStr"/>
-    </row>
-    <row r="366">
-      <c r="A366" s="1" t="n">
-        <v>364</v>
-      </c>
-      <c r="B366" t="n">
-        <v>16.49</v>
-      </c>
-      <c r="C366" t="n">
-        <v>16.49</v>
-      </c>
-      <c r="D366" t="n">
-        <v>16.49</v>
-      </c>
-      <c r="E366" t="n">
-        <v>16.49</v>
-      </c>
-      <c r="F366" t="n">
-        <v>705.9392</v>
-      </c>
-      <c r="G366" t="n">
-        <v>-6237045.859385326</v>
-      </c>
-      <c r="H366" t="n">
-        <v>0</v>
-      </c>
-      <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L366" t="n">
-        <v>1</v>
-      </c>
-      <c r="M366" t="inlineStr"/>
-    </row>
-    <row r="367">
-      <c r="A367" s="1" t="n">
-        <v>365</v>
-      </c>
-      <c r="B367" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="C367" t="n">
-        <v>16.23</v>
-      </c>
-      <c r="D367" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="E367" t="n">
-        <v>16.23</v>
-      </c>
-      <c r="F367" t="n">
-        <v>38692.3802</v>
-      </c>
-      <c r="G367" t="n">
-        <v>-6275738.239585325</v>
-      </c>
-      <c r="H367" t="n">
-        <v>0</v>
-      </c>
-      <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L367" t="n">
-        <v>1</v>
-      </c>
-      <c r="M367" t="inlineStr"/>
-    </row>
-    <row r="368">
-      <c r="A368" s="1" t="n">
-        <v>366</v>
-      </c>
-      <c r="B368" t="n">
-        <v>16.23</v>
-      </c>
-      <c r="C368" t="n">
-        <v>16.23</v>
-      </c>
-      <c r="D368" t="n">
-        <v>16.23</v>
-      </c>
-      <c r="E368" t="n">
-        <v>16.23</v>
-      </c>
-      <c r="F368" t="n">
-        <v>117383.7324</v>
-      </c>
-      <c r="G368" t="n">
-        <v>-6275738.239585325</v>
-      </c>
-      <c r="H368" t="n">
-        <v>0</v>
-      </c>
-      <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L368" t="n">
-        <v>1</v>
-      </c>
-      <c r="M368" t="inlineStr"/>
-    </row>
-    <row r="369">
-      <c r="A369" s="1" t="n">
-        <v>367</v>
-      </c>
-      <c r="B369" t="n">
-        <v>16.23</v>
-      </c>
-      <c r="C369" t="n">
-        <v>16.12</v>
-      </c>
-      <c r="D369" t="n">
-        <v>16.23</v>
-      </c>
-      <c r="E369" t="n">
-        <v>16.12</v>
-      </c>
-      <c r="F369" t="n">
-        <v>112881.0134</v>
-      </c>
-      <c r="G369" t="n">
-        <v>-6388619.252985325</v>
-      </c>
-      <c r="H369" t="n">
-        <v>0</v>
-      </c>
-      <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L369" t="n">
-        <v>1</v>
-      </c>
-      <c r="M369" t="inlineStr"/>
-    </row>
-    <row r="370">
-      <c r="A370" s="1" t="n">
-        <v>368</v>
-      </c>
-      <c r="B370" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="C370" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="D370" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="E370" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="F370" t="n">
-        <v>9202.933000000001</v>
-      </c>
-      <c r="G370" t="n">
-        <v>-6379416.319985325</v>
-      </c>
-      <c r="H370" t="n">
-        <v>1</v>
-      </c>
-      <c r="I370" t="n">
-        <v>16.12</v>
-      </c>
-      <c r="J370" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L370" t="n">
-        <v>1</v>
-      </c>
-      <c r="M370" t="inlineStr"/>
-    </row>
-    <row r="371">
-      <c r="A371" s="1" t="n">
-        <v>369</v>
-      </c>
-      <c r="B371" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="C371" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="D371" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="E371" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="F371" t="n">
-        <v>3330.7036</v>
-      </c>
-      <c r="G371" t="n">
-        <v>-6376085.616385325</v>
-      </c>
-      <c r="H371" t="n">
-        <v>1</v>
-      </c>
-      <c r="I371" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="J371" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L371" t="n">
-        <v>1</v>
-      </c>
-      <c r="M371" t="inlineStr"/>
-    </row>
-    <row r="372">
-      <c r="A372" s="1" t="n">
-        <v>370</v>
-      </c>
-      <c r="B372" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="C372" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="D372" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="E372" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="F372" t="n">
-        <v>300</v>
-      </c>
-      <c r="G372" t="n">
-        <v>-6376085.616385325</v>
-      </c>
-      <c r="H372" t="n">
-        <v>0</v>
-      </c>
-      <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L372" t="n">
-        <v>1</v>
-      </c>
-      <c r="M372" t="inlineStr"/>
-    </row>
-    <row r="373">
-      <c r="A373" s="1" t="n">
-        <v>371</v>
-      </c>
-      <c r="B373" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="C373" t="n">
-        <v>16.38</v>
-      </c>
-      <c r="D373" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="E373" t="n">
-        <v>16.38</v>
-      </c>
-      <c r="F373" t="n">
-        <v>5032.3755</v>
-      </c>
-      <c r="G373" t="n">
-        <v>-6381117.991885325</v>
-      </c>
-      <c r="H373" t="n">
-        <v>0</v>
-      </c>
-      <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L373" t="n">
-        <v>1</v>
-      </c>
-      <c r="M373" t="inlineStr"/>
-    </row>
-    <row r="374">
-      <c r="A374" s="1" t="n">
-        <v>372</v>
-      </c>
-      <c r="B374" t="n">
-        <v>16.21</v>
-      </c>
-      <c r="C374" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="D374" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="E374" t="n">
-        <v>16.21</v>
-      </c>
-      <c r="F374" t="n">
-        <v>22841.8119</v>
-      </c>
-      <c r="G374" t="n">
-        <v>-6358276.179985325</v>
-      </c>
-      <c r="H374" t="n">
-        <v>0</v>
-      </c>
-      <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L374" t="n">
-        <v>1</v>
-      </c>
-      <c r="M374" t="inlineStr"/>
-    </row>
-    <row r="375">
-      <c r="A375" s="1" t="n">
-        <v>373</v>
-      </c>
-      <c r="B375" t="n">
-        <v>16.19</v>
-      </c>
-      <c r="C375" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="D375" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="E375" t="n">
-        <v>16.15</v>
-      </c>
-      <c r="F375" t="n">
-        <v>111312.4751</v>
-      </c>
-      <c r="G375" t="n">
-        <v>-6469588.655085325</v>
-      </c>
-      <c r="H375" t="n">
-        <v>0</v>
-      </c>
-      <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L375" t="n">
-        <v>1</v>
-      </c>
-      <c r="M375" t="inlineStr"/>
-    </row>
-    <row r="376">
-      <c r="A376" s="1" t="n">
-        <v>374</v>
-      </c>
-      <c r="B376" t="n">
-        <v>16.14</v>
-      </c>
-      <c r="C376" t="n">
-        <v>16.14</v>
-      </c>
-      <c r="D376" t="n">
-        <v>16.14</v>
-      </c>
-      <c r="E376" t="n">
-        <v>16.14</v>
-      </c>
-      <c r="F376" t="n">
-        <v>13924.2618</v>
-      </c>
-      <c r="G376" t="n">
-        <v>-6483512.916885326</v>
-      </c>
-      <c r="H376" t="n">
-        <v>0</v>
-      </c>
-      <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L376" t="n">
-        <v>1</v>
-      </c>
-      <c r="M376" t="inlineStr"/>
-    </row>
-    <row r="377">
-      <c r="A377" s="1" t="n">
-        <v>375</v>
-      </c>
-      <c r="B377" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="C377" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="D377" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="E377" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="F377" t="n">
-        <v>6200</v>
-      </c>
-      <c r="G377" t="n">
-        <v>-6477312.916885326</v>
-      </c>
-      <c r="H377" t="n">
-        <v>0</v>
-      </c>
-      <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L377" t="n">
-        <v>1</v>
-      </c>
-      <c r="M377" t="inlineStr"/>
-    </row>
-    <row r="378">
-      <c r="A378" s="1" t="n">
-        <v>376</v>
-      </c>
-      <c r="B378" t="n">
-        <v>16.21</v>
-      </c>
-      <c r="C378" t="n">
-        <v>16.21</v>
-      </c>
-      <c r="D378" t="n">
-        <v>16.21</v>
-      </c>
-      <c r="E378" t="n">
-        <v>16.21</v>
-      </c>
-      <c r="F378" t="n">
-        <v>37954.5914</v>
-      </c>
-      <c r="G378" t="n">
-        <v>-6515267.508285326</v>
-      </c>
-      <c r="H378" t="n">
-        <v>0</v>
-      </c>
-      <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L378" t="n">
-        <v>1</v>
-      </c>
-      <c r="M378" t="inlineStr"/>
-    </row>
-    <row r="379">
-      <c r="A379" s="1" t="n">
-        <v>377</v>
-      </c>
-      <c r="B379" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="C379" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="D379" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="E379" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="F379" t="n">
-        <v>327.3881</v>
-      </c>
-      <c r="G379" t="n">
-        <v>-6515594.896385326</v>
-      </c>
-      <c r="H379" t="n">
-        <v>0</v>
-      </c>
-      <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L379" t="n">
-        <v>1</v>
-      </c>
-      <c r="M379" t="inlineStr"/>
-    </row>
-    <row r="380">
-      <c r="A380" s="1" t="n">
-        <v>378</v>
-      </c>
-      <c r="B380" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="C380" t="n">
-        <v>16.21</v>
-      </c>
-      <c r="D380" t="n">
-        <v>16.21</v>
-      </c>
-      <c r="E380" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="F380" t="n">
-        <v>54012.7941</v>
-      </c>
-      <c r="G380" t="n">
-        <v>-6461582.102285326</v>
-      </c>
-      <c r="H380" t="n">
-        <v>1</v>
-      </c>
-      <c r="I380" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="J380" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13164,7 +12988,7 @@
         <v>16.21</v>
       </c>
       <c r="J381" t="n">
-        <v>16.5</v>
+        <v>16.14</v>
       </c>
       <c r="K381" t="inlineStr">
         <is>
@@ -13205,7 +13029,7 @@
         <v>16.19</v>
       </c>
       <c r="J382" t="n">
-        <v>16.5</v>
+        <v>16.14</v>
       </c>
       <c r="K382" t="inlineStr">
         <is>
@@ -13246,7 +13070,7 @@
         <v>16.14</v>
       </c>
       <c r="J383" t="n">
-        <v>16.5</v>
+        <v>16.14</v>
       </c>
       <c r="K383" t="inlineStr">
         <is>
@@ -13287,7 +13111,7 @@
         <v>16.15</v>
       </c>
       <c r="J384" t="n">
-        <v>16.5</v>
+        <v>16.14</v>
       </c>
       <c r="K384" t="inlineStr">
         <is>
@@ -13322,11 +13146,13 @@
         <v>-6619897.325685326</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
-      </c>
-      <c r="I385" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I385" t="n">
+        <v>16.47</v>
+      </c>
       <c r="J385" t="n">
-        <v>16.5</v>
+        <v>16.14</v>
       </c>
       <c r="K385" t="inlineStr">
         <is>
@@ -13365,7 +13191,7 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="n">
-        <v>16.5</v>
+        <v>16.14</v>
       </c>
       <c r="K386" t="inlineStr">
         <is>
@@ -13400,11 +13226,13 @@
         <v>-6644897.325685326</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
-      </c>
-      <c r="I387" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I387" t="n">
+        <v>16.47</v>
+      </c>
       <c r="J387" t="n">
-        <v>16.5</v>
+        <v>16.14</v>
       </c>
       <c r="K387" t="inlineStr">
         <is>
@@ -13443,7 +13271,7 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="n">
-        <v>16.5</v>
+        <v>16.14</v>
       </c>
       <c r="K388" t="inlineStr">
         <is>
@@ -13478,11 +13306,13 @@
         <v>-6644897.325685326</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
-      </c>
-      <c r="I389" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I389" t="n">
+        <v>16.45</v>
+      </c>
       <c r="J389" t="n">
-        <v>16.5</v>
+        <v>16.14</v>
       </c>
       <c r="K389" t="inlineStr">
         <is>
@@ -13521,7 +13351,7 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="n">
-        <v>16.5</v>
+        <v>16.14</v>
       </c>
       <c r="K390" t="inlineStr">
         <is>
@@ -13560,7 +13390,7 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="n">
-        <v>16.5</v>
+        <v>16.14</v>
       </c>
       <c r="K391" t="inlineStr">
         <is>
@@ -13599,7 +13429,7 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="n">
-        <v>16.5</v>
+        <v>16.14</v>
       </c>
       <c r="K392" t="inlineStr">
         <is>
@@ -13638,7 +13468,7 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="n">
-        <v>16.5</v>
+        <v>16.14</v>
       </c>
       <c r="K393" t="inlineStr">
         <is>
@@ -13677,7 +13507,7 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="n">
-        <v>16.5</v>
+        <v>16.14</v>
       </c>
       <c r="K394" t="inlineStr">
         <is>
@@ -13716,7 +13546,7 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="n">
-        <v>16.5</v>
+        <v>16.14</v>
       </c>
       <c r="K395" t="inlineStr">
         <is>
@@ -13755,7 +13585,7 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="n">
-        <v>16.5</v>
+        <v>16.14</v>
       </c>
       <c r="K396" t="inlineStr">
         <is>
@@ -13794,7 +13624,7 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="n">
-        <v>16.5</v>
+        <v>16.14</v>
       </c>
       <c r="K397" t="inlineStr">
         <is>
@@ -13833,7 +13663,7 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="n">
-        <v>16.5</v>
+        <v>16.14</v>
       </c>
       <c r="K398" t="inlineStr">
         <is>
@@ -13872,7 +13702,7 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="n">
-        <v>16.5</v>
+        <v>16.14</v>
       </c>
       <c r="K399" t="inlineStr">
         <is>
@@ -13911,7 +13741,7 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="n">
-        <v>16.5</v>
+        <v>16.14</v>
       </c>
       <c r="K400" t="inlineStr">
         <is>
@@ -13950,7 +13780,7 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="n">
-        <v>16.5</v>
+        <v>16.14</v>
       </c>
       <c r="K401" t="inlineStr">
         <is>
@@ -13989,7 +13819,7 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="n">
-        <v>16.5</v>
+        <v>16.14</v>
       </c>
       <c r="K402" t="inlineStr">
         <is>
@@ -14028,7 +13858,7 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="n">
-        <v>16.5</v>
+        <v>16.14</v>
       </c>
       <c r="K403" t="inlineStr">
         <is>
@@ -14067,7 +13897,7 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="n">
-        <v>16.5</v>
+        <v>16.14</v>
       </c>
       <c r="K404" t="inlineStr">
         <is>
@@ -14106,7 +13936,7 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="n">
-        <v>16.5</v>
+        <v>16.14</v>
       </c>
       <c r="K405" t="inlineStr">
         <is>
@@ -14145,7 +13975,7 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="n">
-        <v>16.5</v>
+        <v>16.14</v>
       </c>
       <c r="K406" t="inlineStr">
         <is>
@@ -14184,7 +14014,7 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="n">
-        <v>16.5</v>
+        <v>16.14</v>
       </c>
       <c r="K407" t="inlineStr">
         <is>
@@ -14223,7 +14053,7 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="n">
-        <v>16.5</v>
+        <v>16.14</v>
       </c>
       <c r="K408" t="inlineStr">
         <is>
@@ -14262,7 +14092,7 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="n">
-        <v>16.5</v>
+        <v>16.14</v>
       </c>
       <c r="K409" t="inlineStr">
         <is>
@@ -14301,7 +14131,7 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="n">
-        <v>16.5</v>
+        <v>16.14</v>
       </c>
       <c r="K410" t="inlineStr">
         <is>
@@ -14340,7 +14170,7 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="n">
-        <v>16.5</v>
+        <v>16.14</v>
       </c>
       <c r="K411" t="inlineStr">
         <is>
@@ -14379,7 +14209,7 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="n">
-        <v>16.5</v>
+        <v>16.14</v>
       </c>
       <c r="K412" t="inlineStr">
         <is>
@@ -14418,7 +14248,7 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="n">
-        <v>16.5</v>
+        <v>16.14</v>
       </c>
       <c r="K413" t="inlineStr">
         <is>
@@ -14457,7 +14287,7 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="n">
-        <v>16.5</v>
+        <v>16.14</v>
       </c>
       <c r="K414" t="inlineStr">
         <is>
@@ -14496,7 +14326,7 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="n">
-        <v>16.5</v>
+        <v>16.14</v>
       </c>
       <c r="K415" t="inlineStr">
         <is>
@@ -14535,7 +14365,7 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="n">
-        <v>16.5</v>
+        <v>16.14</v>
       </c>
       <c r="K416" t="inlineStr">
         <is>
@@ -14574,7 +14404,7 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="n">
-        <v>16.5</v>
+        <v>16.14</v>
       </c>
       <c r="K417" t="inlineStr">
         <is>
@@ -14613,7 +14443,7 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="n">
-        <v>16.5</v>
+        <v>16.14</v>
       </c>
       <c r="K418" t="inlineStr">
         <is>
@@ -14648,19 +14478,19 @@
         <v>-4836526.664380305</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="n">
-        <v>16.5</v>
+        <v>16.14</v>
       </c>
       <c r="K419" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L419" t="n">
-        <v>1.038030303030303</v>
+        <v>1</v>
       </c>
       <c r="M419" t="inlineStr"/>
     </row>
@@ -14687,11 +14517,17 @@
         <v>-4838275.301480304</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14720,11 +14556,17 @@
         <v>-4844275.301480304</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14753,11 +14595,17 @@
         <v>-4860923.935380304</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14786,11 +14634,17 @@
         <v>-4860456.350580304</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14819,11 +14673,17 @@
         <v>-4860456.350580304</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14852,11 +14712,17 @@
         <v>-4868456.350580304</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14885,11 +14751,17 @@
         <v>-5000654.672480304</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14918,11 +14790,17 @@
         <v>-5000654.672480304</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14954,8 +14832,14 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14987,8 +14871,14 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15020,8 +14910,14 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15053,8 +14949,14 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15086,8 +14988,14 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15119,8 +15027,14 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15152,8 +15066,14 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15185,8 +15105,14 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15215,11 +15141,17 @@
         <v>-5268013.010380304</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15251,8 +15183,14 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15284,8 +15222,14 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15317,8 +15261,14 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15350,8 +15300,14 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15383,8 +15339,14 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15416,8 +15378,14 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15449,8 +15417,14 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15482,8 +15456,14 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15515,8 +15495,14 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15548,8 +15534,14 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15581,8 +15573,14 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15614,8 +15612,14 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15647,8 +15651,14 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15680,8 +15690,14 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15713,8 +15729,14 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15746,8 +15768,14 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15779,8 +15807,14 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15812,8 +15846,14 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15845,8 +15885,14 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15878,8 +15924,14 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15911,8 +15963,14 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15944,8 +16002,14 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -15977,8 +16041,14 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16010,8 +16080,14 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16043,8 +16119,14 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16076,8 +16158,14 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16109,8 +16197,14 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16142,8 +16236,14 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16175,8 +16275,14 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16208,8 +16314,14 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16241,8 +16353,14 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16274,8 +16392,14 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16307,8 +16431,14 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16340,8 +16470,14 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16373,8 +16509,14 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16406,8 +16548,14 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16439,8 +16587,14 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16472,8 +16626,14 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
